--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vegfc-Flt4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vegfc-Flt4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Flt4</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.401172666666666</v>
+        <v>5.441829000000001</v>
       </c>
       <c r="H2">
-        <v>10.203518</v>
+        <v>16.325487</v>
       </c>
       <c r="I2">
-        <v>0.5101677883321655</v>
+        <v>0.5729403216841985</v>
       </c>
       <c r="J2">
-        <v>0.5101677883321655</v>
+        <v>0.5729403216841985</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.398001</v>
+        <v>16.75848066666667</v>
       </c>
       <c r="N2">
-        <v>55.194003</v>
+        <v>50.275442</v>
       </c>
       <c r="O2">
-        <v>0.9859575987166009</v>
+        <v>0.97993745062104</v>
       </c>
       <c r="P2">
-        <v>0.9859575987166012</v>
+        <v>0.9799374506210401</v>
       </c>
       <c r="Q2">
-        <v>62.574778122506</v>
+        <v>91.19678608780602</v>
       </c>
       <c r="R2">
-        <v>563.1730031025539</v>
+        <v>820.7710747902541</v>
       </c>
       <c r="S2">
-        <v>0.5030038075265411</v>
+        <v>0.561445678189212</v>
       </c>
       <c r="T2">
-        <v>0.5030038075265412</v>
+        <v>0.5614456781892121</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.401172666666666</v>
+        <v>5.441829000000001</v>
       </c>
       <c r="H3">
-        <v>10.203518</v>
+        <v>16.325487</v>
       </c>
       <c r="I3">
-        <v>0.5101677883321655</v>
+        <v>0.5729403216841985</v>
       </c>
       <c r="J3">
-        <v>0.5101677883321655</v>
+        <v>0.5729403216841985</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +620,22 @@
         <v>0.329767</v>
       </c>
       <c r="O3">
-        <v>0.005890789973250849</v>
+        <v>0.006427611979601263</v>
       </c>
       <c r="P3">
-        <v>0.00589078997325085</v>
+        <v>0.006427611979601264</v>
       </c>
       <c r="Q3">
-        <v>0.3738648355895555</v>
+        <v>0.5981785412810001</v>
       </c>
       <c r="R3">
-        <v>3.364783520305999</v>
+        <v>5.383606871529</v>
       </c>
       <c r="S3">
-        <v>0.003005291292182682</v>
+        <v>0.003682638075253955</v>
       </c>
       <c r="T3">
-        <v>0.003005291292182682</v>
+        <v>0.003682638075253956</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,51 +658,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.401172666666666</v>
+        <v>5.441829000000001</v>
       </c>
       <c r="H4">
-        <v>10.203518</v>
+        <v>16.325487</v>
       </c>
       <c r="I4">
-        <v>0.5101677883321655</v>
+        <v>0.5729403216841985</v>
       </c>
       <c r="J4">
-        <v>0.5101677883321655</v>
+        <v>0.5729403216841985</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.087793</v>
+        <v>0.233179</v>
       </c>
       <c r="N4">
-        <v>0.263379</v>
+        <v>0.6995370000000001</v>
       </c>
       <c r="O4">
-        <v>0.004704868505231983</v>
+        <v>0.01363493739935873</v>
       </c>
       <c r="P4">
-        <v>0.004704868505231984</v>
+        <v>0.01363493739935873</v>
       </c>
       <c r="Q4">
-        <v>0.2985991519246666</v>
+        <v>1.268920244391</v>
       </c>
       <c r="R4">
-        <v>2.687392367321999</v>
+        <v>11.420282199519</v>
       </c>
       <c r="S4">
-        <v>0.002400272359707862</v>
+        <v>0.007812005419732497</v>
       </c>
       <c r="T4">
-        <v>0.002400272359707863</v>
+        <v>0.007812005419732499</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.401172666666666</v>
+        <v>2.579868</v>
       </c>
       <c r="H5">
-        <v>10.203518</v>
+        <v>7.739604</v>
       </c>
       <c r="I5">
-        <v>0.5101677883321655</v>
+        <v>0.2716201486343598</v>
       </c>
       <c r="J5">
-        <v>0.5101677883321655</v>
+        <v>0.2716201486343598</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06431633333333334</v>
+        <v>16.75848066666667</v>
       </c>
       <c r="N5">
-        <v>0.192949</v>
+        <v>50.275442</v>
       </c>
       <c r="O5">
-        <v>0.003446742804916132</v>
+        <v>0.97993745062104</v>
       </c>
       <c r="P5">
-        <v>0.003446742804916133</v>
+        <v>0.9799374506210401</v>
       </c>
       <c r="Q5">
-        <v>0.2187509549535555</v>
+        <v>43.234668000552</v>
       </c>
       <c r="R5">
-        <v>1.968758594582</v>
+        <v>389.112012004968</v>
       </c>
       <c r="S5">
-        <v>0.001758417153733868</v>
+        <v>0.2661707559900625</v>
       </c>
       <c r="T5">
-        <v>0.001758417153733868</v>
+        <v>0.2661707559900625</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +788,40 @@
         <v>7.739604</v>
       </c>
       <c r="I6">
-        <v>0.3869740471126509</v>
+        <v>0.2716201486343598</v>
       </c>
       <c r="J6">
-        <v>0.3869740471126509</v>
+        <v>0.2716201486343598</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>18.398001</v>
+        <v>0.1099223333333333</v>
       </c>
       <c r="N6">
-        <v>55.194003</v>
+        <v>0.329767</v>
       </c>
       <c r="O6">
-        <v>0.9859575987166009</v>
+        <v>0.006427611979601263</v>
       </c>
       <c r="P6">
-        <v>0.9859575987166012</v>
+        <v>0.006427611979601264</v>
       </c>
       <c r="Q6">
-        <v>47.464414043868</v>
+        <v>0.283585110252</v>
       </c>
       <c r="R6">
-        <v>427.179726394812</v>
+        <v>2.552265992268</v>
       </c>
       <c r="S6">
-        <v>0.3815400022568341</v>
+        <v>0.001745868921263287</v>
       </c>
       <c r="T6">
-        <v>0.3815400022568342</v>
+        <v>0.001745868921263287</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,45 +850,45 @@
         <v>7.739604</v>
       </c>
       <c r="I7">
-        <v>0.3869740471126509</v>
+        <v>0.2716201486343598</v>
       </c>
       <c r="J7">
-        <v>0.3869740471126509</v>
+        <v>0.2716201486343598</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1099223333333333</v>
+        <v>0.233179</v>
       </c>
       <c r="N7">
-        <v>0.329767</v>
+        <v>0.6995370000000001</v>
       </c>
       <c r="O7">
-        <v>0.005890789973250849</v>
+        <v>0.01363493739935873</v>
       </c>
       <c r="P7">
-        <v>0.00589078997325085</v>
+        <v>0.01363493739935873</v>
       </c>
       <c r="Q7">
-        <v>0.283585110252</v>
+        <v>0.601571040372</v>
       </c>
       <c r="R7">
-        <v>2.552265992268</v>
+        <v>5.414139363348</v>
       </c>
       <c r="S7">
-        <v>0.002279582836639506</v>
+        <v>0.003703523723034008</v>
       </c>
       <c r="T7">
-        <v>0.002279582836639506</v>
+        <v>0.003703523723034009</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -900,7 +897,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +906,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.579868</v>
+        <v>1.476376</v>
       </c>
       <c r="H8">
-        <v>7.739604</v>
+        <v>4.429128</v>
       </c>
       <c r="I8">
-        <v>0.3869740471126509</v>
+        <v>0.1554395296814417</v>
       </c>
       <c r="J8">
-        <v>0.3869740471126509</v>
+        <v>0.1554395296814417</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.087793</v>
+        <v>16.75848066666667</v>
       </c>
       <c r="N8">
-        <v>0.263379</v>
+        <v>50.275442</v>
       </c>
       <c r="O8">
-        <v>0.004704868505231983</v>
+        <v>0.97993745062104</v>
       </c>
       <c r="P8">
-        <v>0.004704868505231984</v>
+        <v>0.9799374506210401</v>
       </c>
       <c r="Q8">
-        <v>0.226494351324</v>
+        <v>24.74181865273067</v>
       </c>
       <c r="R8">
-        <v>2.038449161916</v>
+        <v>222.676367874576</v>
       </c>
       <c r="S8">
-        <v>0.001820662006602469</v>
+        <v>0.1523210164417654</v>
       </c>
       <c r="T8">
-        <v>0.001820662006602469</v>
+        <v>0.1523210164417655</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -962,7 +959,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.579868</v>
+        <v>1.476376</v>
       </c>
       <c r="H9">
-        <v>7.739604</v>
+        <v>4.429128</v>
       </c>
       <c r="I9">
-        <v>0.3869740471126509</v>
+        <v>0.1554395296814417</v>
       </c>
       <c r="J9">
-        <v>0.3869740471126509</v>
+        <v>0.1554395296814417</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +986,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.06431633333333334</v>
+        <v>0.1099223333333333</v>
       </c>
       <c r="N9">
-        <v>0.192949</v>
+        <v>0.329767</v>
       </c>
       <c r="O9">
-        <v>0.003446742804916132</v>
+        <v>0.006427611979601263</v>
       </c>
       <c r="P9">
-        <v>0.003446742804916133</v>
+        <v>0.006427611979601264</v>
       </c>
       <c r="Q9">
-        <v>0.165927650244</v>
+        <v>0.1622866947973333</v>
       </c>
       <c r="R9">
-        <v>1.493348852196</v>
+        <v>1.460580253176</v>
       </c>
       <c r="S9">
-        <v>0.001333800012574806</v>
+        <v>0.0009991049830840204</v>
       </c>
       <c r="T9">
-        <v>0.001333800012574806</v>
+        <v>0.0009991049830840209</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1021,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6857320000000001</v>
+        <v>1.476376</v>
       </c>
       <c r="H10">
-        <v>2.057196</v>
+        <v>4.429128</v>
       </c>
       <c r="I10">
-        <v>0.1028581645551836</v>
+        <v>0.1554395296814417</v>
       </c>
       <c r="J10">
-        <v>0.1028581645551836</v>
+        <v>0.1554395296814417</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,214 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.398001</v>
+        <v>0.233179</v>
       </c>
       <c r="N10">
-        <v>55.194003</v>
+        <v>0.6995370000000001</v>
       </c>
       <c r="O10">
-        <v>0.9859575987166009</v>
+        <v>0.01363493739935873</v>
       </c>
       <c r="P10">
-        <v>0.9859575987166012</v>
+        <v>0.01363493739935873</v>
       </c>
       <c r="Q10">
-        <v>12.616098021732</v>
+        <v>0.3442598793040001</v>
       </c>
       <c r="R10">
-        <v>113.544882195588</v>
+        <v>3.098338913736001</v>
       </c>
       <c r="S10">
-        <v>0.1014137889332258</v>
+        <v>0.00211940825659222</v>
       </c>
       <c r="T10">
-        <v>0.1014137889332258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.6857320000000001</v>
-      </c>
-      <c r="H11">
-        <v>2.057196</v>
-      </c>
-      <c r="I11">
-        <v>0.1028581645551836</v>
-      </c>
-      <c r="J11">
-        <v>0.1028581645551836</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M11">
-        <v>0.1099223333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.329767</v>
-      </c>
-      <c r="O11">
-        <v>0.005890789973250849</v>
-      </c>
-      <c r="P11">
-        <v>0.00589078997325085</v>
-      </c>
-      <c r="Q11">
-        <v>0.07537726148133335</v>
-      </c>
-      <c r="R11">
-        <v>0.6783953533320001</v>
-      </c>
-      <c r="S11">
-        <v>0.0006059158444286615</v>
-      </c>
-      <c r="T11">
-        <v>0.0006059158444286614</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.6857320000000001</v>
-      </c>
-      <c r="H12">
-        <v>2.057196</v>
-      </c>
-      <c r="I12">
-        <v>0.1028581645551836</v>
-      </c>
-      <c r="J12">
-        <v>0.1028581645551836</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.087793</v>
-      </c>
-      <c r="N12">
-        <v>0.263379</v>
-      </c>
-      <c r="O12">
-        <v>0.004704868505231983</v>
-      </c>
-      <c r="P12">
-        <v>0.004704868505231984</v>
-      </c>
-      <c r="Q12">
-        <v>0.060202469476</v>
-      </c>
-      <c r="R12">
-        <v>0.541822225284</v>
-      </c>
-      <c r="S12">
-        <v>0.0004839341389216521</v>
-      </c>
-      <c r="T12">
-        <v>0.000483934138921652</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.6857320000000001</v>
-      </c>
-      <c r="H13">
-        <v>2.057196</v>
-      </c>
-      <c r="I13">
-        <v>0.1028581645551836</v>
-      </c>
-      <c r="J13">
-        <v>0.1028581645551836</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.06431633333333334</v>
-      </c>
-      <c r="N13">
-        <v>0.192949</v>
-      </c>
-      <c r="O13">
-        <v>0.003446742804916132</v>
-      </c>
-      <c r="P13">
-        <v>0.003446742804916133</v>
-      </c>
-      <c r="Q13">
-        <v>0.04410376788933335</v>
-      </c>
-      <c r="R13">
-        <v>0.3969339110040001</v>
-      </c>
-      <c r="S13">
-        <v>0.0003545256386074586</v>
-      </c>
-      <c r="T13">
-        <v>0.0003545256386074586</v>
+        <v>0.002119408256592221</v>
       </c>
     </row>
   </sheetData>
